--- a/GUI_NUOVO/External DataTable/DATAINFOTEST.xlsx
+++ b/GUI_NUOVO/External DataTable/DATAINFOTEST.xlsx
@@ -186,9 +186,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -199,7 +197,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -541,18 +541,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
